--- a/9. Sem/FDM/Dec - 2022.xlsx
+++ b/9. Sem/FDM/Dec - 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvander/Documents/Uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7019FD32-0129-3848-A8DD-D6168E7DC6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2FA1B6-B2AA-D54A-A370-D9AEAA847575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{956536F3-BFF2-2B40-BC7A-AE7ABA83B671}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C03FFDE-A8D1-C74C-9B2E-434697FDE0C0}">
   <dimension ref="B20:N225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="P116" sqref="P116:U124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
